--- a/quanatitive analysis.xlsx
+++ b/quanatitive analysis.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshy\Documents\UNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED5B194-81E0-4F23-AE3A-2511B05391E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601D82A0-8A1D-4510-A657-7D908933C1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4C1031C-5070-403D-A156-608A1F4736A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C1031C-5070-403D-A156-608A1F4736A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Training Diffculty</t>
   </si>
@@ -699,7 +698,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> standard diviation</a:t>
+              <a:t> dataset size</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -751,110 +750,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>standard divation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Heart</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abalone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>IRIS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cancer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Dermatology</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.40582009499999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45303541400000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50421853699999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71612338499999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9675865260000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8031066610000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8250782809999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-33FF-4A35-B03B-8FB160C44258}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -864,151 +759,56 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="247"/>
-        <c:axId val="789133936"/>
-        <c:axId val="789132624"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Training Diffculty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Card</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Heart</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abalone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>IRIS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cancer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Dermatology</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>78660</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3351786320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7403520</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>772046352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51412200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7231928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6200018704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33FF-4A35-B03B-8FB160C44258}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="484097392"/>
         <c:axId val="484095424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Dataset size (numbrt of rows)</c:v>
+                        <c:v>standard divation</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:intercept val="0"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1049,7 +849,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1057,39 +857,268 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>345</c:v>
+                        <c:v>0.40582009499999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>460</c:v>
+                        <c:v>0.45303541400000003</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>384</c:v>
+                        <c:v>0.50421853699999997</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2088</c:v>
+                        <c:v>0.71612338499999995</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>75</c:v>
+                        <c:v>1.9675865260000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>341</c:v>
+                        <c:v>2.8031066610000002</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>179</c:v>
+                        <c:v>6.8250782809999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-33FF-4A35-B03B-8FB160C44258}"/>
+                    <c16:uniqueId val="{00000002-33FF-4A35-B03B-8FB160C44258}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dataset size (numbrt of rows)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Card</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heart</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abalone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IRIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cancer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dermatology</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33FF-4A35-B03B-8FB160C44258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="595374312"/>
+        <c:axId val="595373984"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Diffculty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Card</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heart</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abalone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>IRIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cancer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dermatology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>78660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3351786320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7403520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>772046352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51412200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7231928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6200018704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33FF-4A35-B03B-8FB160C44258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="484097392"/>
+        <c:axId val="484095424"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="484097392"/>
@@ -1200,14 +1229,14 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="789132624"/>
+        <c:axId val="595373984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1237,23 +1266,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789133936"/>
+        <c:crossAx val="595374312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="789133936"/>
+        <c:axId val="595374312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="789132624"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="595373984"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1377,7 +1405,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>training diffculty and dataset size</a:t>
+              <a:t>training diffculty and standard diviation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1429,15 +1457,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dataset size (numbrt of rows)</c:v>
+                  <c:v>standard divation</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1445,7 +1473,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1453,20 +1481,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$8</c:f>
@@ -1499,38 +1513,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>345</c:v>
+                  <c:v>0.40582009499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>460</c:v>
+                  <c:v>0.45303541400000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384</c:v>
+                  <c:v>0.50421853699999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2088</c:v>
+                  <c:v>0.71612338499999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>1.9675865260000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>341</c:v>
+                  <c:v>2.8031066610000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>6.8250782809999997</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-848E-4A00-9DCB-650B58754B2A}"/>
+              <c16:uniqueId val="{00000001-848E-4A00-9DCB-650B58754B2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1549,28 +1563,28 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>standard divation</c:v>
+                        <c:v>Dataset size (numbrt of rows)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent3"/>
+                    <a:schemeClr val="accent2"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1582,13 +1596,13 @@
                   <c:spPr>
                     <a:ln w="19050" cap="rnd">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:prstDash val="sysDot"/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:trendlineType val="exp"/>
+                  <c:trendlineType val="linear"/>
                   <c:dispRSqr val="0"/>
                   <c:dispEq val="0"/>
                 </c:trendline>
@@ -1632,7 +1646,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$2:$D$8</c15:sqref>
+                          <c15:sqref>Sheet1!$C$2:$C$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1640,32 +1654,32 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>0.40582009499999999</c:v>
+                        <c:v>345</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.45303541400000003</c:v>
+                        <c:v>460</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.50421853699999997</c:v>
+                        <c:v>384</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.71612338499999995</c:v>
+                        <c:v>2088</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1.9675865260000001</c:v>
+                        <c:v>75</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.8031066610000002</c:v>
+                        <c:v>341</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6.8250782809999997</c:v>
+                        <c:v>179</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-848E-4A00-9DCB-650B58754B2A}"/>
+                    <c16:uniqueId val="{00000003-848E-4A00-9DCB-650B58754B2A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2374,6 +2388,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$8</c:f>
@@ -5645,15 +5674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5683,15 +5712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>568926</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54576</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6055,80 +6084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195AA9D-3C58-451F-86EE-DC58CEC401C7}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-0.14792717551277432</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.7169279117250289</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-0.33149909076644773</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396CF7C4-F97B-4F7B-A7F9-FD3BD6FB2A0B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
